--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaman\IdeaProjects\RealEstateSite\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A68F023-7C13-4378-AC62-ECE4B9D500CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA8BA1C-51C7-495F-8526-E1E60F26EE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C7CDBF23-9A0D-4C1B-A21C-6BBD45C58031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -45,9 +45,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>district</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Villa</t>
   </si>
   <si>
-    <t>istanbul</t>
-  </si>
-  <si>
     <t>oop</t>
   </si>
   <si>
@@ -73,6 +67,81 @@
   </si>
   <si>
     <t>duplex</t>
+  </si>
+  <si>
+    <t>VilLA</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>5+2</t>
+  </si>
+  <si>
+    <t>3+1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2+1</t>
+  </si>
+  <si>
+    <t>4+2</t>
+  </si>
+  <si>
+    <t>2+2</t>
+  </si>
+  <si>
+    <t>4+1</t>
+  </si>
+  <si>
+    <t>6+2</t>
+  </si>
+  <si>
+    <t>Beylikduzu</t>
+  </si>
+  <si>
+    <t>Esenyurt</t>
+  </si>
+  <si>
+    <t>Buyukcekmece</t>
+  </si>
+  <si>
+    <t>Fatih</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>villa</t>
+  </si>
+  <si>
+    <t>1+0</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>5+1</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -434,13 +503,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB02BEF4-5AA3-44B1-8104-00C2F232CBC2}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -453,13 +525,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -468,159 +540,399 @@
         <v>552515</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>99999</v>
+        <v>100000</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>552515</v>
+        <v>597314</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>99999</v>
+        <v>150000</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>552515</v>
+        <v>657591</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>99999</v>
+        <v>200000</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>552515</v>
+        <v>457253</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>99999</v>
+        <v>50000</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>552515</v>
+        <v>128375</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>99999</v>
+        <v>500000</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>552515</v>
+        <v>458319</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>99999</v>
+        <v>90000</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>552515</v>
+        <v>574238</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>99999</v>
+        <v>170000</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>552515</v>
+        <v>964552</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>99999</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>552515</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>100000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>597314</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="C11">
+        <v>150000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>657591</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
+      </c>
+      <c r="C12">
+        <v>200000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>457253</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>50000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>128375</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>500000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>458319</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>90000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>574238</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>170000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>964552</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>99999</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>525</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>5288</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>585555</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>58544</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>159</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>477777</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>878</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>2234</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
